--- a/biology/Zoologie/Catenipora/Catenipora.xlsx
+++ b/biology/Zoologie/Catenipora/Catenipora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catenipora est un genre éteint de coraux tabulés (animaux de l'ordre des Tabulata) de la famille éteinte des Halysitidae et de l'ordre éteint des Heliolitida. 
 Ce groupe fut abondant de l'Ordovicien au Silurien avec une répartition mondiale. 
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le portail Fossilworks liste 21 espèces :
 †Catenipora approximata
@@ -536,7 +550,7 @@
 †Catenipora vespertina
 †Catenipora workmanae
 †Catenipora wrighti
-L'espèce type est Catenipora escharoides. L'espèce Catenipora elegans Fischer-Benzon, 1871 (syn. Halysites elegans) est trouvée dans des terrains du Silurien en Estonie[2],[3],[4].
+L'espèce type est Catenipora escharoides. L'espèce Catenipora elegans Fischer-Benzon, 1871 (syn. Halysites elegans) est trouvée dans des terrains du Silurien en Estonie.
 </t>
         </is>
       </c>
